--- a/CLASS_D_OU_T.xlsx
+++ b/CLASS_D_OU_T.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAULO FISCAL\Downloads\PILOTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BC8604-5EBA-4673-AE1A-6816CFC94CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9717889F-B82C-4783-9DD0-5BDB1FFE1F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{77BE0B0C-E49C-4321-AC05-9CEFAF276080}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="108">
   <si>
     <t>MUSCULO DIANTEIRO VACA BOV KG PROD</t>
   </si>
@@ -293,15 +293,63 @@
   </si>
   <si>
     <t>EXTRA</t>
+  </si>
+  <si>
+    <t>CARNE BOV INDUSTRIAL KG</t>
+  </si>
+  <si>
+    <t>DIANTEIRO BOV KG</t>
+  </si>
+  <si>
+    <t>OSSO PATINHO BOV KG SOL</t>
+  </si>
+  <si>
+    <t>TRASEIRO SERROTE BOV KG</t>
+  </si>
+  <si>
+    <t>ACEM BOV KG SOL</t>
+  </si>
+  <si>
+    <t>CARNE BOV MOIDA 1ª KG</t>
+  </si>
+  <si>
+    <t>CARNE BOV MOIDA 2ª KG</t>
+  </si>
+  <si>
+    <t>CARNE BOV MOIDA KG</t>
+  </si>
+  <si>
+    <t>CONTRAFILE BOV KG SOL</t>
+  </si>
+  <si>
+    <t>COSTELA BOV KG SERRADA</t>
+  </si>
+  <si>
+    <t>COXAO DURO BOV KG SOL</t>
+  </si>
+  <si>
+    <t>COXAO MOLE BOV KG SOL</t>
+  </si>
+  <si>
+    <t>PATINHO BOV KG SOL</t>
+  </si>
+  <si>
+    <t>MATERIA PRIMA</t>
+  </si>
+  <si>
+    <t>SOL</t>
+  </si>
+  <si>
+    <t>MOIDA</t>
+  </si>
+  <si>
+    <t>COSTELA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="&quot;Registros: &quot;#,##0."/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
@@ -346,7 +394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -369,44 +417,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA0A0A0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA0A0A0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA0A0A0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -414,12 +435,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,21 +753,21 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625"/>
     <col min="2" max="2" width="8"/>
-    <col min="3" max="3" width="41"/>
+    <col min="3" max="3" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -766,1177 +781,1354 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3">
         <v>7294</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="3">
+        <v>14756</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="3">
+        <v>6947</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="3">
         <v>5556</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="3">
         <v>7021</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="3">
         <v>14757</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="D7" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="3">
+        <v>14758</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="3">
         <v>6959</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="D9" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="3">
         <v>14759</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="D10" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="3">
         <v>6528</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="D11" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="3">
         <v>18773</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="D12" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="3">
+        <v>14760</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="3">
         <v>5483</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="D14" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="3">
         <v>14761</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="D15" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="3">
+        <v>8439</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4078</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4274</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1847</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="3">
         <v>7909</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="D20" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="3">
         <v>7321</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="3">
         <v>19347</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="3">
         <v>5557</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="3">
         <v>7066</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="4">
+      <c r="D24" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="3">
         <v>6351</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="4">
+      <c r="D25" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="3">
         <v>18767</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="4">
+      <c r="D26" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="3">
+        <v>14763</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="3">
+        <v>6965</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="3">
+        <v>7241</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="3">
         <v>18768</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="4">
+      <c r="D30" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="3">
+        <v>14762</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2550</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="3">
         <v>14764</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="4">
+      <c r="D33" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="3">
+        <v>7404</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="3">
         <v>7265</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="3">
         <v>4093</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="3">
         <v>271925</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="4">
+      <c r="D37" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="3">
+        <v>14765</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="3">
+        <v>6978</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="3">
         <v>5496</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="4">
+      <c r="D40" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="3">
+        <v>14766</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="3">
+        <v>6971</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="3">
         <v>5153</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="4">
+      <c r="D43" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="3">
         <v>15432</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="3">
+        <v>14767</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="3">
         <v>4445</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="3">
+        <v>6009</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="3">
         <v>271893</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="4">
+      <c r="D48" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="3">
+        <v>14768</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="3">
         <v>7237</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="4">
+      <c r="D50" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="3">
         <v>274291</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="3">
+        <v>14769</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="3">
+        <v>5577</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="3">
         <v>272498</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="4">
+      <c r="D54" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="3">
         <v>14770</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="4">
+      <c r="D55" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="3">
+        <v>14771</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="3">
+        <v>5060</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="3">
         <v>18770</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="4">
+      <c r="D58" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="3">
+        <v>14772</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="3">
+        <v>4097</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="3">
         <v>5414</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="4">
+      <c r="D61" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="3">
         <v>14693</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="3">
         <v>7910</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="3">
         <v>7022</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3">
+        <v>14773</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3">
         <v>5387</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="4">
+      <c r="D66" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" s="3">
         <v>8899</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" s="3">
         <v>1983</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D68" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="3">
         <v>11035</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D69" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70" s="3">
         <v>275386</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D70" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" s="3">
         <v>14825</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="3">
+        <v>7064</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="3">
         <v>1845</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D73" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" s="3">
         <v>8988</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D74" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" s="3">
         <v>10947</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B76" s="3">
         <v>7054</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D76" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B77" s="3">
+        <v>14774</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B78" s="3">
         <v>5279</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" s="4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79" s="3">
         <v>7042</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D79" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" s="3">
+        <v>14775</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B81" s="3">
+        <v>7015</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B82" s="3">
         <v>5956</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="4">
+      <c r="D82" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B83" s="3">
         <v>7296</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D83" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B84" s="3">
         <v>14776</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D84" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53" s="4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B85" s="3">
         <v>2646</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D85" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" s="4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B86" s="3">
         <v>6105</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D86" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" s="4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87" s="3">
+        <v>14785</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B88" s="3">
         <v>14777</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C88" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B56" s="4">
+      <c r="D88" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B89" s="3">
+        <v>14786</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B90" s="3">
+        <v>14788</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B91" s="3">
         <v>7057</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C91" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" s="4">
+      <c r="D91" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B92" s="3">
         <v>14778</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C92" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D92" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" s="4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B93" s="3">
         <v>7911</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D93" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B94" s="3">
         <v>10862</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C94" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D94" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B60" s="4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B95" s="3">
         <v>275439</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C95" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D95" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" s="4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B96" s="3">
         <v>4396</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C96" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D96" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" s="4">
-        <v>14756</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="4">
-        <v>14758</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" s="4">
-        <v>14760</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="4">
-        <v>14763</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="4">
-        <v>7241</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67" s="4">
-        <v>14762</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B68" s="4">
-        <v>2550</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B69" s="4">
-        <v>14765</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B70" s="4">
-        <v>14766</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B71" s="4">
-        <v>14767</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B72" s="4">
-        <v>14768</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B73" s="4">
-        <v>14769</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B74" s="4">
-        <v>5577</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B75" s="4">
-        <v>14771</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B76" s="4">
-        <v>5060</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B77" s="4">
-        <v>14772</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B78" s="4">
-        <v>4097</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B79" s="4">
-        <v>14773</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B80" s="4">
-        <v>14774</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B81" s="4">
-        <v>14775</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B82" s="4">
-        <v>14785</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B83" s="4">
-        <v>14786</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B84" s="4">
-        <v>14788</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="11.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="6">
-        <v>83</v>
-      </c>
-      <c r="D85" s="5"/>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1228</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D97">
+    <sortCondition ref="C2:C97"/>
+  </sortState>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="0" firstPageNumber="0" fitToWidth="0" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
